--- a/data/raw/declarations.xlsx
+++ b/data/raw/declarations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_projects\github_repos\cfj_revised\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_projects\github_repos\CFJ\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF431BD3-B0CC-4DFD-8B14-78D754A66B92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463F962A-4128-4194-B18F-DD62BCF5B20E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,33 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>names</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Семенюк Валентина Василівна</t>
-  </si>
-  <si>
-    <t>Ок</t>
-  </si>
-  <si>
-    <t>Стельмах Діна Вікторівна</t>
-  </si>
-  <si>
-    <t>Черепахін Володимир Олексійович</t>
-  </si>
-  <si>
-    <t>Швець Олена Дмитрівна</t>
-  </si>
-  <si>
-    <t>Шевцова Людмила Михайлівна</t>
-  </si>
-  <si>
-    <t>Квверті маразм</t>
   </si>
 </sst>
 </file>
@@ -409,65 +385,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
